--- a/output/Book1-vxlan.xlsx
+++ b/output/Book1-vxlan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OneDrive-Backup\Documents\GitHub\gns3-Project6\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B7D9A7-5D41-4B8E-B50F-670529A07490}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC1C9AC-A9B1-48BA-AEDC-BB3D1E3C7F0E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-135" windowWidth="29040" windowHeight="15840" xr2:uid="{102FA548-4443-4636-B54A-57C638D9BC59}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{102FA548-4443-4636-B54A-57C638D9BC59}"/>
   </bookViews>
   <sheets>
     <sheet name="Pt 5 Data Plane Learning - F&amp;L" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="136">
   <si>
     <t>int eth1/1</t>
   </si>
@@ -395,6 +395,54 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>ip domain-lookup</t>
+  </si>
+  <si>
+    <t>ip domain-name test.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crypto key param rsa label r1.test.net modulus 1024 </t>
+  </si>
+  <si>
+    <t>interface mgmt0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  vrf member management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ip address 10.255.0.101/24</t>
+  </si>
+  <si>
+    <t>interface loopback0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ip address 10.1.1.1/32</t>
+  </si>
+  <si>
+    <t>interface loopback1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ip address 3.3.3.3/32</t>
+  </si>
+  <si>
+    <t>line console</t>
+  </si>
+  <si>
+    <t>line vty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boot nxos bootflash:/nxos.7.0.3.I6.1.bin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">crypto key param rsa label r2.test.net modulus 1024 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ip address 10.255.0.102/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ip address 20.1.1.1/32</t>
   </si>
 </sst>
 </file>
@@ -936,10 +984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2B4CAE6-9DDD-46A5-BF70-4CBC87910AAB}">
-  <dimension ref="A1:C87"/>
+  <dimension ref="A1:C108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1015,485 +1063,628 @@
         <v>6</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>122</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>67</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>68</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="B36"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>72</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55"/>
-      <c r="B55"/>
-    </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B77" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="6"/>
-      <c r="B77" s="6"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5"/>
+      <c r="A81" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>101</v>
-      </c>
+      <c r="A83" s="6"/>
+      <c r="B83" s="6"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>111</v>
+      <c r="A84" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="6"/>
+      <c r="B98" s="6"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B107" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="7"/>
-      <c r="B87" s="7"/>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="7"/>
+      <c r="B108" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1507,8 +1698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F94ABC1-1FBE-4649-A6DD-AE1AEB6E84CA}">
   <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
